--- a/Gitコマンド.xlsx
+++ b/Gitコマンド.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="69">
   <si>
     <t>＃</t>
     <phoneticPr fontId="1"/>
@@ -344,6 +344,43 @@
     <rPh sb="11" eb="13">
       <t>サンコウ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ハッシュ取得
+コミットID</t>
+    <rPh sb="4" eb="6">
+      <t>シュトク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>$ git rev-parse HEAD
+$ git rev-parse --short HEAD</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ハッシュだけでなくコミットメッセージなども取得</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>$ git log -n 1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ハッシュとメッセージのみ取得</t>
+    <rPh sb="12" eb="14">
+      <t>シュトク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>$ git log --pretty=format:"%H %s"</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>$ git log --pretty=format:"%s"　-n 1
+最新版メッセージのみ取得</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -720,8 +757,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -977,13 +1014,17 @@
         <v>61</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:4" ht="27" x14ac:dyDescent="0.15">
       <c r="A20" s="1">
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
-      <c r="B20" s="1"/>
-      <c r="C20" s="1"/>
+      <c r="B20" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>63</v>
+      </c>
       <c r="D20" s="1"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.15">
@@ -991,18 +1032,28 @@
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="B21" s="1"/>
-      <c r="C21" s="1"/>
+      <c r="B21" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>65</v>
+      </c>
       <c r="D21" s="1"/>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:4" ht="27" x14ac:dyDescent="0.15">
       <c r="A22" s="1">
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="B22" s="1"/>
-      <c r="C22" s="1"/>
-      <c r="D22" s="1"/>
+      <c r="B22" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>68</v>
+      </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A23" s="1">

--- a/Gitコマンド.xlsx
+++ b/Gitコマンド.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="74">
   <si>
     <t>＃</t>
     <phoneticPr fontId="1"/>
@@ -77,15 +77,6 @@
     <rPh sb="41" eb="43">
       <t>ホウホウ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t># Rename branch locally    
-git branch -m old_branch new_branch         
-# Delete the old branch  
-git push origin :old_branch
-# Push the new branch, set local branch to track the new remote
-git push --set-upstream origin new_branch</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -383,12 +374,81 @@
 最新版メッセージのみ取得</t>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t># Rename branch locally    
+git branch -m old_branch new_branch         
+# Delete the old branch  
+git push origin :old_branch
+# Push the new branch, set local branch to track the new remote
+git push --set-upstream origin new_branch</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>タグ作成</t>
+    <rPh sb="2" eb="4">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>タグ削除</t>
+    <rPh sb="2" eb="4">
+      <t>サクジョ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>①ローカルタグ削除
+git tag -d TAG_NAME
+②リモートタグ削除
+$ git push origin :TAG_NAME</t>
+    <rPh sb="7" eb="9">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="37" eb="39">
+      <t>サクジョ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>git push origin v0.9</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>①含附注的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>标签
+$ git tag -a v1.4 -m 'my version 1.4'
+②軽量タグ（非推奨）
+$ git tag  v1.4 -m 'my version 1.4'</t>
+    </r>
+    <rPh sb="47" eb="49">
+      <t>ケイリョウ</t>
+    </rPh>
+    <rPh sb="52" eb="53">
+      <t>ヒ</t>
+    </rPh>
+    <rPh sb="53" eb="55">
+      <t>スイショウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -401,6 +461,14 @@
       <name val="ＭＳ Ｐゴシック"/>
       <family val="3"/>
       <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -439,7 +507,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -450,6 +518,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -755,10 +826,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D24"/>
+  <dimension ref="A1:D32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -800,13 +871,13 @@
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="2" t="s">
-        <v>12</v>
+        <v>68</v>
       </c>
       <c r="D3" s="1"/>
     </row>
     <row r="4" spans="1:4" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A4" s="1">
-        <f t="shared" ref="A4:A24" si="0">ROW() - 1</f>
+        <f t="shared" ref="A4:A32" si="0">ROW() - 1</f>
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
@@ -829,7 +900,7 @@
         <v>9</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="40.5" x14ac:dyDescent="0.15">
@@ -851,13 +922,13 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="D7" s="2" t="s">
         <v>14</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.15">
@@ -866,10 +937,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>16</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>17</v>
       </c>
       <c r="D8" s="1"/>
     </row>
@@ -879,10 +950,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" s="2" t="s">
         <v>18</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>19</v>
       </c>
       <c r="D9" s="1"/>
     </row>
@@ -892,10 +963,10 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" s="2" t="s">
         <v>20</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>21</v>
       </c>
       <c r="D10" s="1"/>
     </row>
@@ -906,7 +977,7 @@
       </c>
       <c r="B11" s="1"/>
       <c r="C11" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D11" s="1"/>
     </row>
@@ -916,10 +987,10 @@
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C12" s="1" t="s">
         <v>23</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>24</v>
       </c>
       <c r="D12" s="1"/>
     </row>
@@ -929,10 +1000,10 @@
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" s="2" t="s">
         <v>25</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>26</v>
       </c>
       <c r="D13" s="1"/>
     </row>
@@ -943,7 +1014,7 @@
       </c>
       <c r="B14" s="1"/>
       <c r="C14" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D14" s="1"/>
     </row>
@@ -954,7 +1025,7 @@
       </c>
       <c r="B15" s="1"/>
       <c r="C15" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D15" s="1"/>
     </row>
@@ -964,10 +1035,10 @@
         <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C16" s="2" t="s">
         <v>29</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>30</v>
       </c>
       <c r="D16" s="1"/>
     </row>
@@ -977,10 +1048,10 @@
         <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D17" s="1"/>
     </row>
@@ -990,13 +1061,13 @@
         <v>17</v>
       </c>
       <c r="B18" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C18" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="C18" s="2" t="s">
+      <c r="D18" s="3" t="s">
         <v>35</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="81" x14ac:dyDescent="0.15">
@@ -1005,13 +1076,13 @@
         <v>18</v>
       </c>
       <c r="B19" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C19" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="C19" s="3" t="s">
-        <v>38</v>
-      </c>
       <c r="D19" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="27" x14ac:dyDescent="0.15">
@@ -1020,10 +1091,10 @@
         <v>19</v>
       </c>
       <c r="B20" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C20" s="2" t="s">
         <v>62</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>63</v>
       </c>
       <c r="D20" s="1"/>
     </row>
@@ -1033,10 +1104,10 @@
         <v>20</v>
       </c>
       <c r="B21" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C21" s="1" t="s">
         <v>64</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>65</v>
       </c>
       <c r="D21" s="1"/>
     </row>
@@ -1046,32 +1117,114 @@
         <v>21</v>
       </c>
       <c r="B22" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C22" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="C22" s="1" t="s">
+      <c r="D22" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="D22" s="2" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.15">
+    </row>
+    <row r="23" spans="1:4" ht="67.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="1">
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
-      <c r="B23" s="1"/>
-      <c r="C23" s="1"/>
-      <c r="D23" s="1"/>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B23" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="54" x14ac:dyDescent="0.15">
       <c r="A24" s="1">
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
-      <c r="B24" s="1"/>
-      <c r="C24" s="1"/>
+      <c r="B24" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>71</v>
+      </c>
       <c r="D24" s="1"/>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A25" s="1">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="B25" s="1"/>
+      <c r="C25" s="1"/>
+      <c r="D25" s="1"/>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A26" s="1">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="B26" s="1"/>
+      <c r="C26" s="1"/>
+      <c r="D26" s="1"/>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A27" s="1">
+        <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
+      <c r="B27" s="1"/>
+      <c r="C27" s="1"/>
+      <c r="D27" s="1"/>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A28" s="1">
+        <f t="shared" si="0"/>
+        <v>27</v>
+      </c>
+      <c r="B28" s="1"/>
+      <c r="C28" s="1"/>
+      <c r="D28" s="1"/>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A29" s="1">
+        <f t="shared" si="0"/>
+        <v>28</v>
+      </c>
+      <c r="B29" s="1"/>
+      <c r="C29" s="1"/>
+      <c r="D29" s="1"/>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A30" s="1">
+        <f t="shared" si="0"/>
+        <v>29</v>
+      </c>
+      <c r="B30" s="1"/>
+      <c r="C30" s="1"/>
+      <c r="D30" s="1"/>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A31" s="1">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="B31" s="1"/>
+      <c r="C31" s="1"/>
+      <c r="D31" s="1"/>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A32" s="1">
+        <f t="shared" si="0"/>
+        <v>31</v>
+      </c>
+      <c r="B32" s="1"/>
+      <c r="C32" s="1"/>
+      <c r="D32" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -1092,117 +1245,117 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A22" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A24" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A28" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A29" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
   </sheetData>

--- a/Gitコマンド.xlsx
+++ b/Gitコマンド.xlsx
@@ -9,13 +9,14 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="＃18" sheetId="2" r:id="rId2"/>
+    <sheet name="gitDiff.func.sh" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="121">
   <si>
     <t>＃</t>
     <phoneticPr fontId="1"/>
@@ -443,12 +444,156 @@
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>function get_repository_id()</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  local array=( `echo $1 | tr -s '/' ' '`)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  # データの末尾要素取り出す（破壊的操作）</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  local -i num=${#array[@]}-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  local REPO_ID=${array[$num]}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  echo $REPO_ID</t>
+  </si>
+  <si>
+    <t>function clone_repository()</t>
+  </si>
+  <si>
+    <t>git clone $1;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  local diff_archive=""</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  #リポジトリIDを取得</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  local REPO_ID=`get_repository_id $REPO_URL`</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  local output="../output/$REPO_ID"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    diff="${1} ${2}"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    h=$2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    diff_archive="git diff --diff-filter=d --name-only ${diff}"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  </t>
+  </si>
+  <si>
+    <t>#出力用ディレクトリ存在チェック</t>
+  </si>
+  <si>
+    <t>if [ ! -e "$output" ]; then</t>
+  </si>
+  <si>
+    <t>echo "出力用ディレクトリ${output}作成"</t>
+  </si>
+  <si>
+    <t>mkdir -p "$output"</t>
+  </si>
+  <si>
+    <t>fi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  echo 差分ファイルを抽出し、ZIPに出力する</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  git archive --format=zip --prefix=root/ $1 `eval $diff_archive` -o "$output/${1}.zip"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  git archive --format=zip --prefix=root/ $2 `eval $diff_archive` -o "$output/${2}.zip"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  echo 差分一覧をログに出力する</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  git diff --name-status  $diff  &gt; "$output/diff_${2}.log"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">function remove_tmp_dir() </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  rm -d -f -r $1</t>
+  </si>
+  <si>
+    <t>gitDiff.func.sh</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>readonly REVISION_ID_01="57a48c89edd7011d5f5e710c4b8d2fc4d9b303e6"</t>
+  </si>
+  <si>
+    <t>readonly REVISION_ID_02="a3245a26ee7afb24870302b34f2e2a34bbec991f"</t>
+  </si>
+  <si>
+    <t>#myfunc.func取り込み「.」を忘れないようにしよう。</t>
+  </si>
+  <si>
+    <t>. gitDiff.func.sh</t>
+  </si>
+  <si>
+    <t>#リポジトリIDを取得</t>
+  </si>
+  <si>
+    <t>REPO_ID=`get_repository_id $REPO_URL`</t>
+  </si>
+  <si>
+    <t>echo リポジトリのID： $REPO_ID</t>
+  </si>
+  <si>
+    <t>clone_repository $REPO_URL</t>
+  </si>
+  <si>
+    <t>#リポジトリディレクトリへ移動</t>
+  </si>
+  <si>
+    <t>echo $REPO_IDへ移動</t>
+  </si>
+  <si>
+    <t>cd $REPO_ID</t>
+  </si>
+  <si>
+    <t>git_diff_archive  $REVISION_ID_01 $REVISION_ID_02</t>
+  </si>
+  <si>
+    <t>echo 作業用ディレクトリを戻す</t>
+  </si>
+  <si>
+    <t>cd ../</t>
+  </si>
+  <si>
+    <t>echo リポジトリディレクトリを削除する</t>
+  </si>
+  <si>
+    <t>remove_tmp_dir $REPO_ID</t>
+  </si>
+  <si>
+    <t>readonly REPO_URL="https://git-codecommit.ap-northeast-1.amazonaws.com/v1/repos/リポジトリID"</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DiffMain.sh</t>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -469,6 +614,15 @@
       <name val="ＭＳ Ｐゴシック"/>
       <family val="3"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -507,7 +661,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -522,6 +676,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -828,7 +983,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
       <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
@@ -1238,7 +1393,7 @@
   <dimension ref="A1:A29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1362,4 +1517,329 @@
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:K55"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="P14" sqref="P14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A2" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="K2" s="6" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
+        <v>74</v>
+      </c>
+      <c r="K3" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
+        <v>39</v>
+      </c>
+      <c r="K4" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A5" t="s">
+        <v>75</v>
+      </c>
+      <c r="K5" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A6" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A7" t="s">
+        <v>77</v>
+      </c>
+      <c r="K7" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A8" t="s">
+        <v>78</v>
+      </c>
+      <c r="K8" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A9" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A10" t="s">
+        <v>55</v>
+      </c>
+      <c r="K10" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="K11" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A12" t="s">
+        <v>80</v>
+      </c>
+      <c r="K12" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A13" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="B14" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A15" t="s">
+        <v>55</v>
+      </c>
+      <c r="K15" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A17" t="s">
+        <v>38</v>
+      </c>
+      <c r="K17" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A18" t="s">
+        <v>39</v>
+      </c>
+      <c r="K18" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A19" t="s">
+        <v>82</v>
+      </c>
+      <c r="K19" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A20" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A21" t="s">
+        <v>41</v>
+      </c>
+      <c r="K21" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A22" t="s">
+        <v>83</v>
+      </c>
+      <c r="K22" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A23" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A24" t="s">
+        <v>85</v>
+      </c>
+      <c r="K24" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A25" t="s">
+        <v>42</v>
+      </c>
+      <c r="K25" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A26" t="s">
+        <v>43</v>
+      </c>
+      <c r="K26" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A27" t="s">
+        <v>44</v>
+      </c>
+      <c r="K27" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A28" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A29" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A30" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A31" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A32" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A33" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A34" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A35" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A36" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A37" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A38" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B39" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B40" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="C41" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="C42" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B43" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A45" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A46" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A47" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A48" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A49" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A50" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A52" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A53" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A54" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A55" t="s">
+        <v>55</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>